--- a/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
+++ b/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPPECbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\hydgn\HPPECbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B97E69D-5845-4A3B-8048-6843CBB2030B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9885"/>
+    <workbookView xWindow="8055" yWindow="210" windowWidth="11138" windowHeight="9165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HPPECbP" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Texas" sheetId="3" r:id="rId2"/>
+    <sheet name="HPPECbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
@@ -79,12 +89,54 @@
   </si>
   <si>
     <t>Excess Capacity (dimensionless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basically, they assume that electrolyzers will be sized to 125% of their average output. </t>
+  </si>
+  <si>
+    <t>Or, put another way, they assume a capacity factor of 80%.</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy14osti/60528.pdf</t>
+  </si>
+  <si>
+    <t>This seems like a weird spreadsheet. The study they cited is all about using electrolysis to produce hydrogen for fuel cell electric vehicles (FCEVs). The study's baseline scenario sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the electrolyzers so that they can produce enough hydrogen to meet the FCEV demand. Then, as a sensitivity, they see how it would change things if the electrolyzers were oversized. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They test them at 25% oversized and 50% oversized. In that case, the electrolyzers have excess capacity and can ramp up and down to provide flexible electricity consumption for the grid. </t>
+  </si>
+  <si>
+    <t>The way EPS uses this data is confusing. For one, these results are meaningless for steam methane reforming and other hydrogen production processes that do not use electricity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otherwise, I assume they use these numbers to artificially inflate the capacity of hydrogen being installed which would drive up costs. </t>
+  </si>
+  <si>
+    <t>In reality, hydrogen equipment will probably be used intensively. It is likely uneconomical to oversize electrolysis by 25% just to provide excess capacity for flexible grid services. Batteries are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probably a much cheaper way to do this than electrolyzers, which are expensive. </t>
+  </si>
+  <si>
+    <t>Moreover, an NREL study cited in another on of the EPS data sheets:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumes capacity factors of 90-98% for the different hydrogen producing technologies. So a capacity factor of 80%, which EPS assumes for this spreadsheet, seems quite conservative. </t>
+  </si>
+  <si>
+    <t>I am updating their values from 25% to 10%, which is a capacity factor of 91% (still slightly conservative based on the NREL data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From a Texas standpoint, there is no reason to expect that Texas capacity factors would be lower or higher than US numbers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,10 +473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -493,7 +547,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -501,13 +555,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D15A5-49C7-4AA3-904E-D747B589DD68}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{E5CCC4DE-7151-453D-9F42-0DF6296C2ABD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -627,139 +771,139 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <f>$B$2</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AI6" si="0">$B$2</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -768,139 +912,139 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:Q6" si="1">$B$2</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -909,139 +1053,139 @@
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
@@ -1050,139 +1194,139 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -1191,139 +1335,139 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
+++ b/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\hydgn\HPPECbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPPECbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B97E69D-5845-4A3B-8048-6843CBB2030B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="210" windowWidth="11138" windowHeight="9165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Texas" sheetId="3" r:id="rId2"/>
-    <sheet name="HPPECbP" sheetId="2" r:id="rId3"/>
+    <sheet name="HPPECbP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Source:</t>
   </si>
@@ -89,54 +79,12 @@
   </si>
   <si>
     <t>Excess Capacity (dimensionless)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basically, they assume that electrolyzers will be sized to 125% of their average output. </t>
-  </si>
-  <si>
-    <t>Or, put another way, they assume a capacity factor of 80%.</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy14osti/60528.pdf</t>
-  </si>
-  <si>
-    <t>This seems like a weird spreadsheet. The study they cited is all about using electrolysis to produce hydrogen for fuel cell electric vehicles (FCEVs). The study's baseline scenario sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the electrolyzers so that they can produce enough hydrogen to meet the FCEV demand. Then, as a sensitivity, they see how it would change things if the electrolyzers were oversized. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They test them at 25% oversized and 50% oversized. In that case, the electrolyzers have excess capacity and can ramp up and down to provide flexible electricity consumption for the grid. </t>
-  </si>
-  <si>
-    <t>The way EPS uses this data is confusing. For one, these results are meaningless for steam methane reforming and other hydrogen production processes that do not use electricity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otherwise, I assume they use these numbers to artificially inflate the capacity of hydrogen being installed which would drive up costs. </t>
-  </si>
-  <si>
-    <t>In reality, hydrogen equipment will probably be used intensively. It is likely uneconomical to oversize electrolysis by 25% just to provide excess capacity for flexible grid services. Batteries are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probably a much cheaper way to do this than electrolyzers, which are expensive. </t>
-  </si>
-  <si>
-    <t>Moreover, an NREL study cited in another on of the EPS data sheets:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assumes capacity factors of 90-98% for the different hydrogen producing technologies. So a capacity factor of 80%, which EPS assumes for this spreadsheet, seems quite conservative. </t>
-  </si>
-  <si>
-    <t>I am updating their values from 25% to 10%, which is a capacity factor of 91% (still slightly conservative based on the NREL data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From a Texas standpoint, there is no reason to expect that Texas capacity factors would be lower or higher than US numbers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,12 +421,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -547,7 +493,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -555,103 +501,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D15A5-49C7-4AA3-904E-D747B589DD68}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{E5CCC4DE-7151-453D-9F42-0DF6296C2ABD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -771,139 +627,139 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
         <f>$B$2</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AI6" si="0">$B$2</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -912,139 +768,139 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:Q6" si="1">$B$2</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -1053,139 +909,139 @@
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
@@ -1194,139 +1050,139 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -1335,139 +1191,139 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
